--- a/plantilla_udi.xlsx
+++ b/plantilla_udi.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\SURAEdoCuentaBack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441B734-A736-4BD4-A132-95FC467ABDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estad de Cuenta de Bonos" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Estad de Cuenta de Bonos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,21 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">ESTADOS DE CUENTA DE BONOS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>ESTADOS DE CUENTA DE BONOS</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Nombre del SAT para Sura:</t>
+      <t>Nombre del SAT para Sura:</t>
     </r>
     <r>
       <rPr>
@@ -48,82 +53,62 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Nombre del Proveedor de servicio:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFC de Sura:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.F.C R&amp;S-811221KR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clave del Proveedor de servicio:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Domicilio Sura: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Blvd. Adolfo López Mateos No. 2448</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RFC del Proveedor de servicio:</t>
+    <t>Nombre del Proveedor de servicio:</t>
+  </si>
+  <si>
+    <t>RFC de Sura:</t>
+  </si>
+  <si>
+    <t>R.F.C R&amp;S-811221KR6</t>
+  </si>
+  <si>
+    <t>Clave del Proveedor de servicio:</t>
+  </si>
+  <si>
+    <t>RFC del Proveedor de servicio:</t>
   </si>
   <si>
     <t xml:space="preserve"> Col. Altavista C.P. 01060 Ciudad de México. Tel 5723-7999</t>
   </si>
   <si>
-    <t xml:space="preserve">Domicilio Fiscal del Proveedor de servicio:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de generación:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Productor:</t>
+    <t>Domicilio Fiscal del Proveedor de servicio:</t>
+  </si>
+  <si>
+    <t>Fecha de generación:</t>
+  </si>
+  <si>
+    <t>Tipo de Productor:</t>
   </si>
   <si>
     <t xml:space="preserve">  - Desde:</t>
   </si>
   <si>
-    <t xml:space="preserve">Promotoría a la pertenece:</t>
+    <t>Promotoría a la pertenece:</t>
   </si>
   <si>
     <t xml:space="preserve">  - Hasta:</t>
   </si>
   <si>
-    <t xml:space="preserve">Clave de Productor:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Preliquidación:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuenta bancaria dada de alta:</t>
+    <t>Clave de Productor:</t>
+  </si>
+  <si>
+    <t>Fecha Preliquidación:</t>
+  </si>
+  <si>
+    <t>Cuenta bancaria dada de alta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domicilio Sura: </t>
+  </si>
+  <si>
+    <t>Blvd. Adolfo López Mateos No. 2448</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,22 +116,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -154,7 +124,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -182,11 +152,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,206 +174,146 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -407,17 +323,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>432640</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -438,44 +360,336 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.28"/>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="6" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -494,14 +708,13 @@
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11" t="s">
         <v>5</v>
@@ -512,14 +725,16 @@
       <c r="L5" s="13"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -527,16 +742,16 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -544,16 +759,16 @@
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -561,14 +776,14 @@
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -576,14 +791,14 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -591,16 +806,16 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -610,7 +825,7 @@
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="13" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -626,12 +841,10 @@
       <c r="M13" s="22"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.39375" right="0.39375" top="0.532638888888889" bottom="0.39375" header="0.39375" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.53263888888888899" bottom="0.39374999999999999" header="0.39374999999999999" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;RPágina &amp;P de &amp;N</oddHeader>
-    <oddFooter/>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
